--- a/dependencies/brucella/suis1/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/suis1/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\suis1\script_dependents\python\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/workspace/vSNP/dependencies/brucella/suis1/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A2F93-E55C-2946-A4CD-F90AF1236D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25875" windowHeight="16875" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25880" windowHeight="16880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gi|384222553|ref|NC_017250.1|" sheetId="1" r:id="rId1"/>
-    <sheet name="gi|384223698|ref|NC_017251.1|" sheetId="2" r:id="rId2"/>
+    <sheet name="NC_017250.1" sheetId="1" r:id="rId1"/>
+    <sheet name="NC_017251.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1361,8 +1362,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1702,36 +1703,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="22" customWidth="1"/>
     <col min="6" max="6" width="19" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="18" customWidth="1"/>
-    <col min="14" max="20" width="13.125" style="19" customWidth="1"/>
-    <col min="21" max="22" width="15.125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="15.125" style="43" customWidth="1"/>
-    <col min="25" max="27" width="15.125" style="46" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="13"/>
+    <col min="11" max="11" width="42.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="18" customWidth="1"/>
+    <col min="14" max="20" width="13.1640625" style="19" customWidth="1"/>
+    <col min="21" max="22" width="15.1640625" style="20" customWidth="1"/>
+    <col min="23" max="24" width="15.1640625" style="43" customWidth="1"/>
+    <col min="25" max="27" width="15.1640625" style="46" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1849,7 +1850,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1880,7 +1881,7 @@
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>531843</v>
       </c>
@@ -1911,7 +1912,7 @@
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>532087</v>
       </c>
@@ -1942,7 +1943,7 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>532506</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>623503</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>832664</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>832801</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>976058</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1103071</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>531876</v>
       </c>
@@ -2159,7 +2160,7 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1137286</v>
       </c>
@@ -2190,7 +2191,7 @@
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>734944</v>
       </c>
@@ -2221,7 +2222,7 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -2250,7 +2251,7 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2278,7 +2279,7 @@
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -2306,7 +2307,7 @@
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2334,7 +2335,7 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -2362,7 +2363,7 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -2390,7 +2391,7 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -2418,7 +2419,7 @@
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -2446,7 +2447,7 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -2474,7 +2475,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -2502,7 +2503,7 @@
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -2530,7 +2531,7 @@
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -2558,7 +2559,7 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -2586,7 +2587,7 @@
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -2614,7 +2615,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -2642,7 +2643,7 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -2670,7 +2671,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
@@ -2698,7 +2699,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -2726,7 +2727,7 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -2754,7 +2755,7 @@
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -2782,7 +2783,7 @@
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -2810,7 +2811,7 @@
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -2838,7 +2839,7 @@
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -2866,7 +2867,7 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -2894,7 +2895,7 @@
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -2922,7 +2923,7 @@
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -2950,7 +2951,7 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -2978,7 +2979,7 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -3006,7 +3007,7 @@
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -3034,7 +3035,7 @@
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="16"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -3062,7 +3063,7 @@
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="16"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -3090,7 +3091,7 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="16"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -3118,7 +3119,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="16"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -3146,7 +3147,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -3174,7 +3175,7 @@
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -3202,7 +3203,7 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -3230,7 +3231,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -3258,7 +3259,7 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -3286,7 +3287,7 @@
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -3314,7 +3315,7 @@
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -3342,7 +3343,7 @@
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -3370,7 +3371,7 @@
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -3398,7 +3399,7 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -3426,7 +3427,7 @@
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -3454,7 +3455,7 @@
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -3482,7 +3483,7 @@
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -3510,7 +3511,7 @@
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -3538,7 +3539,7 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -3566,7 +3567,7 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -3594,7 +3595,7 @@
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -3622,7 +3623,7 @@
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -3650,7 +3651,7 @@
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -3678,7 +3679,7 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -3706,7 +3707,7 @@
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -3734,7 +3735,7 @@
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -3762,7 +3763,7 @@
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -3790,7 +3791,7 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -3818,7 +3819,7 @@
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -3846,7 +3847,7 @@
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -3874,7 +3875,7 @@
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -3902,7 +3903,7 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -3930,7 +3931,7 @@
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -3958,7 +3959,7 @@
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -3986,7 +3987,7 @@
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -4014,7 +4015,7 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -4042,7 +4043,7 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -4070,7 +4071,7 @@
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
@@ -4098,7 +4099,7 @@
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -4126,7 +4127,7 @@
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -4154,7 +4155,7 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -4182,7 +4183,7 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -4210,7 +4211,7 @@
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -4238,7 +4239,7 @@
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -4266,7 +4267,7 @@
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -4294,7 +4295,7 @@
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -4322,7 +4323,7 @@
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -4350,7 +4351,7 @@
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -4378,7 +4379,7 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -4406,7 +4407,7 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -4434,7 +4435,7 @@
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
@@ -4462,7 +4463,7 @@
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -4490,7 +4491,7 @@
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -4518,7 +4519,7 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -4546,7 +4547,7 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -4574,7 +4575,7 @@
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -4602,7 +4603,7 @@
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
@@ -4630,7 +4631,7 @@
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
@@ -4658,7 +4659,7 @@
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -4686,7 +4687,7 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -4714,7 +4715,7 @@
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -4742,7 +4743,7 @@
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
@@ -4770,7 +4771,7 @@
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -4798,7 +4799,7 @@
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -4826,7 +4827,7 @@
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -4854,7 +4855,7 @@
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -4882,7 +4883,7 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -4910,7 +4911,7 @@
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -4938,7 +4939,7 @@
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -4966,7 +4967,7 @@
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -4994,7 +4995,7 @@
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -5022,7 +5023,7 @@
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
@@ -5050,7 +5051,7 @@
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -5078,7 +5079,7 @@
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -5106,7 +5107,7 @@
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -5134,7 +5135,7 @@
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -5162,7 +5163,7 @@
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
@@ -5190,7 +5191,7 @@
       <c r="Z120" s="45"/>
       <c r="AA120" s="45"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -5218,7 +5219,7 @@
       <c r="Z121" s="45"/>
       <c r="AA121" s="45"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
@@ -5246,7 +5247,7 @@
       <c r="Z122" s="45"/>
       <c r="AA122" s="45"/>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
@@ -5274,7 +5275,7 @@
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
@@ -5302,7 +5303,7 @@
       <c r="Z124" s="45"/>
       <c r="AA124" s="45"/>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -5330,7 +5331,7 @@
       <c r="Z125" s="45"/>
       <c r="AA125" s="45"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -5358,7 +5359,7 @@
       <c r="Z126" s="45"/>
       <c r="AA126" s="45"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -5386,7 +5387,7 @@
       <c r="Z127" s="45"/>
       <c r="AA127" s="45"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -5414,7 +5415,7 @@
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -5442,7 +5443,7 @@
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
@@ -5470,7 +5471,7 @@
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
@@ -5498,7 +5499,7 @@
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
@@ -5526,7 +5527,7 @@
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
@@ -5554,7 +5555,7 @@
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
@@ -5582,7 +5583,7 @@
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -5610,7 +5611,7 @@
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -5638,7 +5639,7 @@
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -5666,7 +5667,7 @@
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -5694,7 +5695,7 @@
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -5722,7 +5723,7 @@
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -5750,7 +5751,7 @@
       <c r="Z140" s="45"/>
       <c r="AA140" s="45"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -5778,7 +5779,7 @@
       <c r="Z141" s="45"/>
       <c r="AA141" s="45"/>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -5806,7 +5807,7 @@
       <c r="Z142" s="45"/>
       <c r="AA142" s="45"/>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -5834,7 +5835,7 @@
       <c r="Z143" s="45"/>
       <c r="AA143" s="45"/>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -5862,7 +5863,7 @@
       <c r="Z144" s="45"/>
       <c r="AA144" s="45"/>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -5890,7 +5891,7 @@
       <c r="Z145" s="45"/>
       <c r="AA145" s="45"/>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -5918,7 +5919,7 @@
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -5946,7 +5947,7 @@
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -5974,7 +5975,7 @@
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -6002,7 +6003,7 @@
       <c r="Z149" s="45"/>
       <c r="AA149" s="45"/>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -6030,7 +6031,7 @@
       <c r="Z150" s="45"/>
       <c r="AA150" s="45"/>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
@@ -6058,7 +6059,7 @@
       <c r="Z151" s="45"/>
       <c r="AA151" s="45"/>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
@@ -6086,7 +6087,7 @@
       <c r="Z152" s="45"/>
       <c r="AA152" s="45"/>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
@@ -6114,7 +6115,7 @@
       <c r="Z153" s="45"/>
       <c r="AA153" s="45"/>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
@@ -6142,7 +6143,7 @@
       <c r="Z154" s="45"/>
       <c r="AA154" s="45"/>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
@@ -6170,7 +6171,7 @@
       <c r="Z155" s="45"/>
       <c r="AA155" s="45"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
@@ -6198,7 +6199,7 @@
       <c r="Z156" s="45"/>
       <c r="AA156" s="45"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
@@ -6226,7 +6227,7 @@
       <c r="Z157" s="45"/>
       <c r="AA157" s="45"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
@@ -6254,7 +6255,7 @@
       <c r="Z158" s="45"/>
       <c r="AA158" s="45"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
@@ -6282,7 +6283,7 @@
       <c r="Z159" s="45"/>
       <c r="AA159" s="45"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
@@ -6310,7 +6311,7 @@
       <c r="Z160" s="45"/>
       <c r="AA160" s="45"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
@@ -6338,7 +6339,7 @@
       <c r="Z161" s="45"/>
       <c r="AA161" s="45"/>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
@@ -6366,7 +6367,7 @@
       <c r="Z162" s="45"/>
       <c r="AA162" s="45"/>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
@@ -6394,7 +6395,7 @@
       <c r="Z163" s="45"/>
       <c r="AA163" s="45"/>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
@@ -6422,7 +6423,7 @@
       <c r="Z164" s="45"/>
       <c r="AA164" s="45"/>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
@@ -6450,7 +6451,7 @@
       <c r="Z165" s="45"/>
       <c r="AA165" s="45"/>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
@@ -6478,7 +6479,7 @@
       <c r="Z166" s="45"/>
       <c r="AA166" s="45"/>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
@@ -6506,7 +6507,7 @@
       <c r="Z167" s="45"/>
       <c r="AA167" s="45"/>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
@@ -6534,7 +6535,7 @@
       <c r="Z168" s="45"/>
       <c r="AA168" s="45"/>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
@@ -6562,7 +6563,7 @@
       <c r="Z169" s="45"/>
       <c r="AA169" s="45"/>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
@@ -6590,7 +6591,7 @@
       <c r="Z170" s="45"/>
       <c r="AA170" s="45"/>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
@@ -6618,7 +6619,7 @@
       <c r="Z171" s="45"/>
       <c r="AA171" s="45"/>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
@@ -6646,7 +6647,7 @@
       <c r="Z172" s="45"/>
       <c r="AA172" s="45"/>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
@@ -6674,7 +6675,7 @@
       <c r="Z173" s="45"/>
       <c r="AA173" s="45"/>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
@@ -6709,36 +6710,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="22" customWidth="1"/>
     <col min="6" max="6" width="19" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="18" customWidth="1"/>
-    <col min="14" max="20" width="13.125" style="19" customWidth="1"/>
-    <col min="21" max="22" width="15.125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="15.125" style="43" customWidth="1"/>
-    <col min="25" max="27" width="15.125" style="46" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="13"/>
+    <col min="11" max="11" width="42.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="18" customWidth="1"/>
+    <col min="14" max="20" width="13.1640625" style="19" customWidth="1"/>
+    <col min="21" max="22" width="15.1640625" style="20" customWidth="1"/>
+    <col min="23" max="24" width="15.1640625" style="43" customWidth="1"/>
+    <col min="25" max="27" width="15.1640625" style="46" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>150285</v>
       </c>
@@ -6852,7 +6853,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>150422</v>
       </c>
@@ -6883,7 +6884,7 @@
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>228045</v>
       </c>
@@ -6914,7 +6915,7 @@
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>524204</v>
       </c>
@@ -6945,7 +6946,7 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>524341</v>
       </c>
@@ -6976,7 +6977,7 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>528203</v>
       </c>
@@ -7007,7 +7008,7 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>725942</v>
       </c>
@@ -7038,7 +7039,7 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>798627</v>
       </c>
@@ -7069,7 +7070,7 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>943820</v>
       </c>
@@ -7100,7 +7101,7 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1066226</v>
       </c>
@@ -7131,7 +7132,7 @@
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1197300</v>
       </c>
@@ -7162,7 +7163,7 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1197301</v>
       </c>
@@ -7193,7 +7194,7 @@
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1526447</v>
       </c>
@@ -7224,7 +7225,7 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1560499</v>
       </c>
@@ -7255,7 +7256,7 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1618367</v>
       </c>
@@ -7286,7 +7287,7 @@
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1876291</v>
       </c>
@@ -7317,7 +7318,7 @@
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -7348,7 +7349,7 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -7379,7 +7380,7 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -7410,7 +7411,7 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1795640</v>
       </c>
@@ -7441,7 +7442,7 @@
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>944734</v>
       </c>
@@ -7472,7 +7473,7 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7503,7 +7504,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1201776</v>
       </c>
@@ -7534,7 +7535,7 @@
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1674847</v>
       </c>
@@ -7565,7 +7566,7 @@
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>497737</v>
       </c>
@@ -7596,7 +7597,7 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>522670</v>
       </c>
@@ -7627,7 +7628,7 @@
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>217850</v>
       </c>
@@ -7658,7 +7659,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>892276</v>
       </c>
@@ -7689,7 +7690,7 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>522670</v>
       </c>
@@ -7720,7 +7721,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -7751,7 +7752,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>35</v>
       </c>
@@ -7782,7 +7783,7 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -7813,7 +7814,7 @@
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
@@ -7842,7 +7843,7 @@
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -7870,7 +7871,7 @@
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -7898,7 +7899,7 @@
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -7926,7 +7927,7 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -7954,7 +7955,7 @@
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -7982,7 +7983,7 @@
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -8010,7 +8011,7 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -8038,7 +8039,7 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -8066,7 +8067,7 @@
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -8094,7 +8095,7 @@
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B44" s="16"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -8122,7 +8123,7 @@
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B45" s="16"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -8150,7 +8151,7 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B46" s="16"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -8178,7 +8179,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="16"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -8206,7 +8207,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -8234,7 +8235,7 @@
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -8262,7 +8263,7 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -8290,7 +8291,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -8318,7 +8319,7 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -8346,7 +8347,7 @@
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -8374,7 +8375,7 @@
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -8402,7 +8403,7 @@
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -8430,7 +8431,7 @@
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -8458,7 +8459,7 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -8486,7 +8487,7 @@
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -8514,7 +8515,7 @@
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -8542,7 +8543,7 @@
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -8570,7 +8571,7 @@
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -8598,7 +8599,7 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -8626,7 +8627,7 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -8654,7 +8655,7 @@
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -8682,7 +8683,7 @@
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -8710,7 +8711,7 @@
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -8738,7 +8739,7 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -8766,7 +8767,7 @@
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -8794,7 +8795,7 @@
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -8822,7 +8823,7 @@
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -8850,7 +8851,7 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -8878,7 +8879,7 @@
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -8906,7 +8907,7 @@
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -8934,7 +8935,7 @@
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -8962,7 +8963,7 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -8990,7 +8991,7 @@
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -9018,7 +9019,7 @@
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -9046,7 +9047,7 @@
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -9074,7 +9075,7 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -9102,7 +9103,7 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -9130,7 +9131,7 @@
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
@@ -9158,7 +9159,7 @@
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -9186,7 +9187,7 @@
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -9214,7 +9215,7 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -9242,7 +9243,7 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -9270,7 +9271,7 @@
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -9298,7 +9299,7 @@
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -9326,7 +9327,7 @@
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -9354,7 +9355,7 @@
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -9382,7 +9383,7 @@
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -9410,7 +9411,7 @@
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -9438,7 +9439,7 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -9466,7 +9467,7 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -9494,7 +9495,7 @@
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
@@ -9522,7 +9523,7 @@
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -9550,7 +9551,7 @@
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -9578,7 +9579,7 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -9606,7 +9607,7 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -9634,7 +9635,7 @@
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -9662,7 +9663,7 @@
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
@@ -9690,7 +9691,7 @@
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
@@ -9718,7 +9719,7 @@
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -9746,7 +9747,7 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -9774,7 +9775,7 @@
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -9802,7 +9803,7 @@
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
@@ -9830,7 +9831,7 @@
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -9858,7 +9859,7 @@
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -9886,7 +9887,7 @@
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -9914,7 +9915,7 @@
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -9942,7 +9943,7 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -9970,7 +9971,7 @@
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -9998,7 +9999,7 @@
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -10026,7 +10027,7 @@
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -10054,7 +10055,7 @@
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -10082,7 +10083,7 @@
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
@@ -10110,7 +10111,7 @@
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -10138,7 +10139,7 @@
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -10166,7 +10167,7 @@
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -10194,7 +10195,7 @@
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -10222,7 +10223,7 @@
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
@@ -10250,7 +10251,7 @@
       <c r="Z120" s="45"/>
       <c r="AA120" s="45"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -10278,7 +10279,7 @@
       <c r="Z121" s="45"/>
       <c r="AA121" s="45"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
@@ -10306,7 +10307,7 @@
       <c r="Z122" s="45"/>
       <c r="AA122" s="45"/>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
@@ -10334,7 +10335,7 @@
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
@@ -10362,7 +10363,7 @@
       <c r="Z124" s="45"/>
       <c r="AA124" s="45"/>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -10390,7 +10391,7 @@
       <c r="Z125" s="45"/>
       <c r="AA125" s="45"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -10418,7 +10419,7 @@
       <c r="Z126" s="45"/>
       <c r="AA126" s="45"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -10446,7 +10447,7 @@
       <c r="Z127" s="45"/>
       <c r="AA127" s="45"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -10474,7 +10475,7 @@
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -10502,7 +10503,7 @@
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
@@ -10530,7 +10531,7 @@
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
@@ -10558,7 +10559,7 @@
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
@@ -10586,7 +10587,7 @@
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
@@ -10614,7 +10615,7 @@
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
@@ -10642,7 +10643,7 @@
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -10670,7 +10671,7 @@
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -10698,7 +10699,7 @@
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -10726,7 +10727,7 @@
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -10754,7 +10755,7 @@
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -10782,7 +10783,7 @@
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -10810,7 +10811,7 @@
       <c r="Z140" s="45"/>
       <c r="AA140" s="45"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -10838,7 +10839,7 @@
       <c r="Z141" s="45"/>
       <c r="AA141" s="45"/>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -10866,7 +10867,7 @@
       <c r="Z142" s="45"/>
       <c r="AA142" s="45"/>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -10894,7 +10895,7 @@
       <c r="Z143" s="45"/>
       <c r="AA143" s="45"/>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -10922,7 +10923,7 @@
       <c r="Z144" s="45"/>
       <c r="AA144" s="45"/>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -10950,7 +10951,7 @@
       <c r="Z145" s="45"/>
       <c r="AA145" s="45"/>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -10978,7 +10979,7 @@
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -11006,7 +11007,7 @@
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -11034,7 +11035,7 @@
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -11062,7 +11063,7 @@
       <c r="Z149" s="45"/>
       <c r="AA149" s="45"/>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -11090,7 +11091,7 @@
       <c r="Z150" s="45"/>
       <c r="AA150" s="45"/>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
@@ -11118,7 +11119,7 @@
       <c r="Z151" s="45"/>
       <c r="AA151" s="45"/>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
@@ -11146,7 +11147,7 @@
       <c r="Z152" s="45"/>
       <c r="AA152" s="45"/>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
@@ -11174,7 +11175,7 @@
       <c r="Z153" s="45"/>
       <c r="AA153" s="45"/>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
@@ -11202,7 +11203,7 @@
       <c r="Z154" s="45"/>
       <c r="AA154" s="45"/>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
@@ -11230,7 +11231,7 @@
       <c r="Z155" s="45"/>
       <c r="AA155" s="45"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
@@ -11258,7 +11259,7 @@
       <c r="Z156" s="45"/>
       <c r="AA156" s="45"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
@@ -11286,7 +11287,7 @@
       <c r="Z157" s="45"/>
       <c r="AA157" s="45"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
@@ -11314,7 +11315,7 @@
       <c r="Z158" s="45"/>
       <c r="AA158" s="45"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
@@ -11342,7 +11343,7 @@
       <c r="Z159" s="45"/>
       <c r="AA159" s="45"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
@@ -11370,7 +11371,7 @@
       <c r="Z160" s="45"/>
       <c r="AA160" s="45"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
@@ -11398,7 +11399,7 @@
       <c r="Z161" s="45"/>
       <c r="AA161" s="45"/>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
@@ -11426,7 +11427,7 @@
       <c r="Z162" s="45"/>
       <c r="AA162" s="45"/>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
@@ -11454,7 +11455,7 @@
       <c r="Z163" s="45"/>
       <c r="AA163" s="45"/>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
@@ -11482,7 +11483,7 @@
       <c r="Z164" s="45"/>
       <c r="AA164" s="45"/>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
@@ -11510,7 +11511,7 @@
       <c r="Z165" s="45"/>
       <c r="AA165" s="45"/>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
@@ -11538,7 +11539,7 @@
       <c r="Z166" s="45"/>
       <c r="AA166" s="45"/>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
@@ -11566,7 +11567,7 @@
       <c r="Z167" s="45"/>
       <c r="AA167" s="45"/>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
@@ -11594,7 +11595,7 @@
       <c r="Z168" s="45"/>
       <c r="AA168" s="45"/>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
@@ -11622,7 +11623,7 @@
       <c r="Z169" s="45"/>
       <c r="AA169" s="45"/>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
@@ -11650,7 +11651,7 @@
       <c r="Z170" s="45"/>
       <c r="AA170" s="45"/>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
@@ -11678,7 +11679,7 @@
       <c r="Z171" s="45"/>
       <c r="AA171" s="45"/>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
@@ -11706,7 +11707,7 @@
       <c r="Z172" s="45"/>
       <c r="AA172" s="45"/>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
@@ -11734,7 +11735,7 @@
       <c r="Z173" s="45"/>
       <c r="AA173" s="45"/>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>

--- a/dependencies/brucella/suis1/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/suis1/script_dependents/Filtered_Regions.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/workspace/vSNP/dependencies/brucella/suis1/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\suis1\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A2F93-E55C-2946-A4CD-F90AF1236D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25880" windowHeight="16880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25875" windowHeight="16875" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NC_017250.1" sheetId="1" r:id="rId1"/>
     <sheet name="NC_017251.1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Bsuis1-All</t>
   </si>
@@ -138,11 +137,17 @@
   <si>
     <t>267531-267548</t>
   </si>
+  <si>
+    <t>1055327-1055332</t>
+  </si>
+  <si>
+    <t>944508</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1362,8 +1367,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 2" xfId="171"/>
+    <cellStyle name="Note 2" xfId="172"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1703,36 +1708,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="19" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="18" customWidth="1"/>
-    <col min="14" max="20" width="13.1640625" style="19" customWidth="1"/>
-    <col min="21" max="22" width="15.1640625" style="20" customWidth="1"/>
-    <col min="23" max="24" width="15.1640625" style="43" customWidth="1"/>
-    <col min="25" max="27" width="15.1640625" style="46" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="42.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="18" customWidth="1"/>
+    <col min="14" max="20" width="13.125" style="19" customWidth="1"/>
+    <col min="21" max="22" width="15.125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="15.125" style="43" customWidth="1"/>
+    <col min="25" max="27" width="15.125" style="46" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>531843</v>
       </c>
@@ -1912,7 +1917,7 @@
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>532087</v>
       </c>
@@ -1943,7 +1948,7 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>532506</v>
       </c>
@@ -1974,7 +1979,7 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>623503</v>
       </c>
@@ -2005,7 +2010,7 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>832664</v>
       </c>
@@ -2036,7 +2041,7 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>832801</v>
       </c>
@@ -2067,7 +2072,7 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>976058</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1103071</v>
       </c>
@@ -2129,7 +2134,7 @@
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>531876</v>
       </c>
@@ -2160,7 +2165,7 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1137286</v>
       </c>
@@ -2191,7 +2196,7 @@
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>734944</v>
       </c>
@@ -2222,7 +2227,7 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -2251,7 +2256,7 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2279,7 +2284,7 @@
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -2307,7 +2312,7 @@
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2335,7 +2340,7 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -2363,7 +2368,7 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -2391,7 +2396,7 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -2419,7 +2424,7 @@
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -2447,7 +2452,7 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -2475,7 +2480,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -2503,7 +2508,7 @@
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -2531,7 +2536,7 @@
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -2559,7 +2564,7 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -2587,7 +2592,7 @@
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -2615,7 +2620,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -2643,7 +2648,7 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -2671,7 +2676,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
@@ -2699,7 +2704,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -2727,7 +2732,7 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -2755,7 +2760,7 @@
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -2783,7 +2788,7 @@
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -2811,7 +2816,7 @@
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -2839,7 +2844,7 @@
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -2867,7 +2872,7 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -2895,7 +2900,7 @@
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -2923,7 +2928,7 @@
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -2951,7 +2956,7 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -2979,7 +2984,7 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -3007,7 +3012,7 @@
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -3035,7 +3040,7 @@
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -3063,7 +3068,7 @@
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -3091,7 +3096,7 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -3119,7 +3124,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -3147,7 +3152,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -3175,7 +3180,7 @@
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -3203,7 +3208,7 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -3231,7 +3236,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -3259,7 +3264,7 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -3287,7 +3292,7 @@
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -3315,7 +3320,7 @@
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -3343,7 +3348,7 @@
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -3371,7 +3376,7 @@
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -3399,7 +3404,7 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -3427,7 +3432,7 @@
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -3455,7 +3460,7 @@
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -3483,7 +3488,7 @@
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -3511,7 +3516,7 @@
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -3539,7 +3544,7 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -3567,7 +3572,7 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -3595,7 +3600,7 @@
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -3623,7 +3628,7 @@
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -3651,7 +3656,7 @@
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -3679,7 +3684,7 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -3707,7 +3712,7 @@
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -3735,7 +3740,7 @@
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -3763,7 +3768,7 @@
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -3791,7 +3796,7 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -3819,7 +3824,7 @@
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -3847,7 +3852,7 @@
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -3875,7 +3880,7 @@
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -3903,7 +3908,7 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -3931,7 +3936,7 @@
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -3959,7 +3964,7 @@
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -3987,7 +3992,7 @@
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -4015,7 +4020,7 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -4043,7 +4048,7 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -4071,7 +4076,7 @@
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
@@ -4099,7 +4104,7 @@
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -4127,7 +4132,7 @@
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -4155,7 +4160,7 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -4183,7 +4188,7 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -4211,7 +4216,7 @@
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -4239,7 +4244,7 @@
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -4267,7 +4272,7 @@
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -4295,7 +4300,7 @@
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -4323,7 +4328,7 @@
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -4351,7 +4356,7 @@
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -4379,7 +4384,7 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -4407,7 +4412,7 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -4435,7 +4440,7 @@
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
@@ -4463,7 +4468,7 @@
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -4491,7 +4496,7 @@
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -4519,7 +4524,7 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -4547,7 +4552,7 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -4575,7 +4580,7 @@
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -4603,7 +4608,7 @@
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
@@ -4631,7 +4636,7 @@
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
@@ -4659,7 +4664,7 @@
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -4687,7 +4692,7 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -4715,7 +4720,7 @@
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -4743,7 +4748,7 @@
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
@@ -4771,7 +4776,7 @@
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -4799,7 +4804,7 @@
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -4827,7 +4832,7 @@
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -4855,7 +4860,7 @@
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -4883,7 +4888,7 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -4911,7 +4916,7 @@
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -4939,7 +4944,7 @@
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -4967,7 +4972,7 @@
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -4995,7 +5000,7 @@
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -5023,7 +5028,7 @@
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
@@ -5051,7 +5056,7 @@
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -5079,7 +5084,7 @@
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -5107,7 +5112,7 @@
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -5135,7 +5140,7 @@
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -5163,7 +5168,7 @@
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
@@ -5191,7 +5196,7 @@
       <c r="Z120" s="45"/>
       <c r="AA120" s="45"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -5219,7 +5224,7 @@
       <c r="Z121" s="45"/>
       <c r="AA121" s="45"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
@@ -5247,7 +5252,7 @@
       <c r="Z122" s="45"/>
       <c r="AA122" s="45"/>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
@@ -5275,7 +5280,7 @@
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
@@ -5303,7 +5308,7 @@
       <c r="Z124" s="45"/>
       <c r="AA124" s="45"/>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -5331,7 +5336,7 @@
       <c r="Z125" s="45"/>
       <c r="AA125" s="45"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -5359,7 +5364,7 @@
       <c r="Z126" s="45"/>
       <c r="AA126" s="45"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -5387,7 +5392,7 @@
       <c r="Z127" s="45"/>
       <c r="AA127" s="45"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -5415,7 +5420,7 @@
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -5443,7 +5448,7 @@
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
@@ -5471,7 +5476,7 @@
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
@@ -5499,7 +5504,7 @@
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
@@ -5527,7 +5532,7 @@
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
@@ -5555,7 +5560,7 @@
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
@@ -5583,7 +5588,7 @@
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -5611,7 +5616,7 @@
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -5639,7 +5644,7 @@
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -5667,7 +5672,7 @@
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -5695,7 +5700,7 @@
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -5723,7 +5728,7 @@
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -5751,7 +5756,7 @@
       <c r="Z140" s="45"/>
       <c r="AA140" s="45"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -5779,7 +5784,7 @@
       <c r="Z141" s="45"/>
       <c r="AA141" s="45"/>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -5807,7 +5812,7 @@
       <c r="Z142" s="45"/>
       <c r="AA142" s="45"/>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -5835,7 +5840,7 @@
       <c r="Z143" s="45"/>
       <c r="AA143" s="45"/>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -5863,7 +5868,7 @@
       <c r="Z144" s="45"/>
       <c r="AA144" s="45"/>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -5891,7 +5896,7 @@
       <c r="Z145" s="45"/>
       <c r="AA145" s="45"/>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -5919,7 +5924,7 @@
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -5947,7 +5952,7 @@
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -5975,7 +5980,7 @@
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -6003,7 +6008,7 @@
       <c r="Z149" s="45"/>
       <c r="AA149" s="45"/>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -6031,7 +6036,7 @@
       <c r="Z150" s="45"/>
       <c r="AA150" s="45"/>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
@@ -6059,7 +6064,7 @@
       <c r="Z151" s="45"/>
       <c r="AA151" s="45"/>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
@@ -6087,7 +6092,7 @@
       <c r="Z152" s="45"/>
       <c r="AA152" s="45"/>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
@@ -6115,7 +6120,7 @@
       <c r="Z153" s="45"/>
       <c r="AA153" s="45"/>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
@@ -6143,7 +6148,7 @@
       <c r="Z154" s="45"/>
       <c r="AA154" s="45"/>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
@@ -6171,7 +6176,7 @@
       <c r="Z155" s="45"/>
       <c r="AA155" s="45"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
@@ -6199,7 +6204,7 @@
       <c r="Z156" s="45"/>
       <c r="AA156" s="45"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
@@ -6227,7 +6232,7 @@
       <c r="Z157" s="45"/>
       <c r="AA157" s="45"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
@@ -6255,7 +6260,7 @@
       <c r="Z158" s="45"/>
       <c r="AA158" s="45"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
@@ -6283,7 +6288,7 @@
       <c r="Z159" s="45"/>
       <c r="AA159" s="45"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
@@ -6311,7 +6316,7 @@
       <c r="Z160" s="45"/>
       <c r="AA160" s="45"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
@@ -6339,7 +6344,7 @@
       <c r="Z161" s="45"/>
       <c r="AA161" s="45"/>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
@@ -6367,7 +6372,7 @@
       <c r="Z162" s="45"/>
       <c r="AA162" s="45"/>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
@@ -6395,7 +6400,7 @@
       <c r="Z163" s="45"/>
       <c r="AA163" s="45"/>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
@@ -6423,7 +6428,7 @@
       <c r="Z164" s="45"/>
       <c r="AA164" s="45"/>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
@@ -6451,7 +6456,7 @@
       <c r="Z165" s="45"/>
       <c r="AA165" s="45"/>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
@@ -6479,7 +6484,7 @@
       <c r="Z166" s="45"/>
       <c r="AA166" s="45"/>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
@@ -6507,7 +6512,7 @@
       <c r="Z167" s="45"/>
       <c r="AA167" s="45"/>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
@@ -6535,7 +6540,7 @@
       <c r="Z168" s="45"/>
       <c r="AA168" s="45"/>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
@@ -6563,7 +6568,7 @@
       <c r="Z169" s="45"/>
       <c r="AA169" s="45"/>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
@@ -6591,7 +6596,7 @@
       <c r="Z170" s="45"/>
       <c r="AA170" s="45"/>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
@@ -6619,7 +6624,7 @@
       <c r="Z171" s="45"/>
       <c r="AA171" s="45"/>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
@@ -6647,7 +6652,7 @@
       <c r="Z172" s="45"/>
       <c r="AA172" s="45"/>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
@@ -6675,7 +6680,7 @@
       <c r="Z173" s="45"/>
       <c r="AA173" s="45"/>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
@@ -6710,36 +6715,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="19" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="18" customWidth="1"/>
-    <col min="14" max="20" width="13.1640625" style="19" customWidth="1"/>
-    <col min="21" max="22" width="15.1640625" style="20" customWidth="1"/>
-    <col min="23" max="24" width="15.1640625" style="43" customWidth="1"/>
-    <col min="25" max="27" width="15.1640625" style="46" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="42.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="18" customWidth="1"/>
+    <col min="14" max="20" width="13.125" style="19" customWidth="1"/>
+    <col min="21" max="22" width="15.125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="15.125" style="43" customWidth="1"/>
+    <col min="25" max="27" width="15.125" style="46" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6822,7 +6827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>150285</v>
       </c>
@@ -6842,7 +6847,9 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
@@ -6853,7 +6860,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>150422</v>
       </c>
@@ -6884,7 +6891,7 @@
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>228045</v>
       </c>
@@ -6915,7 +6922,7 @@
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>524204</v>
       </c>
@@ -6946,7 +6953,7 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>524341</v>
       </c>
@@ -6977,7 +6984,7 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>528203</v>
       </c>
@@ -7008,7 +7015,7 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>725942</v>
       </c>
@@ -7039,7 +7046,7 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>798627</v>
       </c>
@@ -7070,7 +7077,7 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>943820</v>
       </c>
@@ -7101,7 +7108,7 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1066226</v>
       </c>
@@ -7132,7 +7139,7 @@
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1197300</v>
       </c>
@@ -7163,7 +7170,7 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1197301</v>
       </c>
@@ -7194,7 +7201,7 @@
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1526447</v>
       </c>
@@ -7225,7 +7232,7 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1560499</v>
       </c>
@@ -7256,7 +7263,7 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1618367</v>
       </c>
@@ -7287,7 +7294,7 @@
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1876291</v>
       </c>
@@ -7318,7 +7325,7 @@
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -7349,7 +7356,7 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -7380,7 +7387,7 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -7411,7 +7418,7 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1795640</v>
       </c>
@@ -7442,7 +7449,7 @@
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>944734</v>
       </c>
@@ -7473,7 +7480,7 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7504,7 +7511,7 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1201776</v>
       </c>
@@ -7535,7 +7542,7 @@
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1674847</v>
       </c>
@@ -7566,7 +7573,7 @@
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>497737</v>
       </c>
@@ -7597,7 +7604,7 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>522670</v>
       </c>
@@ -7628,7 +7635,7 @@
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>217850</v>
       </c>
@@ -7659,7 +7666,7 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>892276</v>
       </c>
@@ -7690,7 +7697,7 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>522670</v>
       </c>
@@ -7721,7 +7728,7 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -7752,7 +7759,7 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>35</v>
       </c>
@@ -7783,7 +7790,7 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -7814,8 +7821,10 @@
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -7843,7 +7852,7 @@
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -7871,7 +7880,7 @@
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -7899,7 +7908,7 @@
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -7927,7 +7936,7 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -7955,7 +7964,7 @@
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -7983,7 +7992,7 @@
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -8011,7 +8020,7 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -8039,7 +8048,7 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -8067,7 +8076,7 @@
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -8095,7 +8104,7 @@
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -8123,7 +8132,7 @@
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -8151,7 +8160,7 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -8179,7 +8188,7 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -8207,7 +8216,7 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -8235,7 +8244,7 @@
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -8263,7 +8272,7 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -8291,7 +8300,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -8319,7 +8328,7 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -8347,7 +8356,7 @@
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -8375,7 +8384,7 @@
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -8403,7 +8412,7 @@
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -8431,7 +8440,7 @@
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
@@ -8459,7 +8468,7 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -8487,7 +8496,7 @@
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -8515,7 +8524,7 @@
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -8543,7 +8552,7 @@
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -8571,7 +8580,7 @@
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -8599,7 +8608,7 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -8627,7 +8636,7 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -8655,7 +8664,7 @@
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -8683,7 +8692,7 @@
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -8711,7 +8720,7 @@
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -8739,7 +8748,7 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -8767,7 +8776,7 @@
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -8795,7 +8804,7 @@
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -8823,7 +8832,7 @@
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -8851,7 +8860,7 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -8879,7 +8888,7 @@
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -8907,7 +8916,7 @@
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -8935,7 +8944,7 @@
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -8963,7 +8972,7 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -8991,7 +9000,7 @@
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -9019,7 +9028,7 @@
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -9047,7 +9056,7 @@
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -9075,7 +9084,7 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -9103,7 +9112,7 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -9131,7 +9140,7 @@
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
@@ -9159,7 +9168,7 @@
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -9187,7 +9196,7 @@
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -9215,7 +9224,7 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -9243,7 +9252,7 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -9271,7 +9280,7 @@
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -9299,7 +9308,7 @@
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -9327,7 +9336,7 @@
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -9355,7 +9364,7 @@
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -9383,7 +9392,7 @@
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -9411,7 +9420,7 @@
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -9439,7 +9448,7 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -9467,7 +9476,7 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -9495,7 +9504,7 @@
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
@@ -9523,7 +9532,7 @@
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -9551,7 +9560,7 @@
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -9579,7 +9588,7 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -9607,7 +9616,7 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
@@ -9635,7 +9644,7 @@
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -9663,7 +9672,7 @@
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
@@ -9691,7 +9700,7 @@
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
@@ -9719,7 +9728,7 @@
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -9747,7 +9756,7 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -9775,7 +9784,7 @@
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -9803,7 +9812,7 @@
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
@@ -9831,7 +9840,7 @@
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -9859,7 +9868,7 @@
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -9887,7 +9896,7 @@
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
@@ -9915,7 +9924,7 @@
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
@@ -9943,7 +9952,7 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
@@ -9971,7 +9980,7 @@
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -9999,7 +10008,7 @@
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
@@ -10027,7 +10036,7 @@
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -10055,7 +10064,7 @@
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -10083,7 +10092,7 @@
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
@@ -10111,7 +10120,7 @@
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
@@ -10139,7 +10148,7 @@
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
@@ -10167,7 +10176,7 @@
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -10195,7 +10204,7 @@
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -10223,7 +10232,7 @@
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
@@ -10251,7 +10260,7 @@
       <c r="Z120" s="45"/>
       <c r="AA120" s="45"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -10279,7 +10288,7 @@
       <c r="Z121" s="45"/>
       <c r="AA121" s="45"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
@@ -10307,7 +10316,7 @@
       <c r="Z122" s="45"/>
       <c r="AA122" s="45"/>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
@@ -10335,7 +10344,7 @@
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
@@ -10363,7 +10372,7 @@
       <c r="Z124" s="45"/>
       <c r="AA124" s="45"/>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -10391,7 +10400,7 @@
       <c r="Z125" s="45"/>
       <c r="AA125" s="45"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
@@ -10419,7 +10428,7 @@
       <c r="Z126" s="45"/>
       <c r="AA126" s="45"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -10447,7 +10456,7 @@
       <c r="Z127" s="45"/>
       <c r="AA127" s="45"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -10475,7 +10484,7 @@
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -10503,7 +10512,7 @@
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
@@ -10531,7 +10540,7 @@
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
@@ -10559,7 +10568,7 @@
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
@@ -10587,7 +10596,7 @@
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
@@ -10615,7 +10624,7 @@
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
@@ -10643,7 +10652,7 @@
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -10671,7 +10680,7 @@
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -10699,7 +10708,7 @@
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -10727,7 +10736,7 @@
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -10755,7 +10764,7 @@
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -10783,7 +10792,7 @@
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -10811,7 +10820,7 @@
       <c r="Z140" s="45"/>
       <c r="AA140" s="45"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -10839,7 +10848,7 @@
       <c r="Z141" s="45"/>
       <c r="AA141" s="45"/>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -10867,7 +10876,7 @@
       <c r="Z142" s="45"/>
       <c r="AA142" s="45"/>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -10895,7 +10904,7 @@
       <c r="Z143" s="45"/>
       <c r="AA143" s="45"/>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -10923,7 +10932,7 @@
       <c r="Z144" s="45"/>
       <c r="AA144" s="45"/>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -10951,7 +10960,7 @@
       <c r="Z145" s="45"/>
       <c r="AA145" s="45"/>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -10979,7 +10988,7 @@
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -11007,7 +11016,7 @@
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -11035,7 +11044,7 @@
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -11063,7 +11072,7 @@
       <c r="Z149" s="45"/>
       <c r="AA149" s="45"/>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -11091,7 +11100,7 @@
       <c r="Z150" s="45"/>
       <c r="AA150" s="45"/>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
@@ -11119,7 +11128,7 @@
       <c r="Z151" s="45"/>
       <c r="AA151" s="45"/>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
@@ -11147,7 +11156,7 @@
       <c r="Z152" s="45"/>
       <c r="AA152" s="45"/>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
@@ -11175,7 +11184,7 @@
       <c r="Z153" s="45"/>
       <c r="AA153" s="45"/>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
@@ -11203,7 +11212,7 @@
       <c r="Z154" s="45"/>
       <c r="AA154" s="45"/>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
@@ -11231,7 +11240,7 @@
       <c r="Z155" s="45"/>
       <c r="AA155" s="45"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
@@ -11259,7 +11268,7 @@
       <c r="Z156" s="45"/>
       <c r="AA156" s="45"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
@@ -11287,7 +11296,7 @@
       <c r="Z157" s="45"/>
       <c r="AA157" s="45"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
@@ -11315,7 +11324,7 @@
       <c r="Z158" s="45"/>
       <c r="AA158" s="45"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
@@ -11343,7 +11352,7 @@
       <c r="Z159" s="45"/>
       <c r="AA159" s="45"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
@@ -11371,7 +11380,7 @@
       <c r="Z160" s="45"/>
       <c r="AA160" s="45"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
@@ -11399,7 +11408,7 @@
       <c r="Z161" s="45"/>
       <c r="AA161" s="45"/>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
@@ -11427,7 +11436,7 @@
       <c r="Z162" s="45"/>
       <c r="AA162" s="45"/>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
@@ -11455,7 +11464,7 @@
       <c r="Z163" s="45"/>
       <c r="AA163" s="45"/>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
@@ -11483,7 +11492,7 @@
       <c r="Z164" s="45"/>
       <c r="AA164" s="45"/>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
@@ -11511,7 +11520,7 @@
       <c r="Z165" s="45"/>
       <c r="AA165" s="45"/>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
@@ -11539,7 +11548,7 @@
       <c r="Z166" s="45"/>
       <c r="AA166" s="45"/>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
@@ -11567,7 +11576,7 @@
       <c r="Z167" s="45"/>
       <c r="AA167" s="45"/>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
@@ -11595,7 +11604,7 @@
       <c r="Z168" s="45"/>
       <c r="AA168" s="45"/>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
@@ -11623,7 +11632,7 @@
       <c r="Z169" s="45"/>
       <c r="AA169" s="45"/>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
@@ -11651,7 +11660,7 @@
       <c r="Z170" s="45"/>
       <c r="AA170" s="45"/>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
@@ -11679,7 +11688,7 @@
       <c r="Z171" s="45"/>
       <c r="AA171" s="45"/>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
@@ -11707,7 +11716,7 @@
       <c r="Z172" s="45"/>
       <c r="AA172" s="45"/>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
@@ -11735,7 +11744,7 @@
       <c r="Z173" s="45"/>
       <c r="AA173" s="45"/>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
